--- a/x-tweets/sentiment_volatility.xlsx
+++ b/x-tweets/sentiment_volatility.xlsx
@@ -509,16 +509,16 @@
         <v>0.2307692307692308</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="I2" t="n">
         <v>0.6153846153846154</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1153846153846154</v>
       </c>
     </row>
     <row r="3">
@@ -538,19 +538,19 @@
         <v>0.04522819874864265</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2115384615384615</v>
+        <v>0.25</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5576923076923077</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1346153846153846</v>
       </c>
     </row>
     <row r="4">
@@ -570,19 +570,19 @@
         <v>0.02330180262847499</v>
       </c>
       <c r="F4" t="n">
-        <v>0.196078431372549</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="G4" t="n">
-        <v>0.392156862745098</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2156862745098039</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3725490196078431</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.09803921568627451</v>
       </c>
     </row>
     <row r="5">
@@ -602,19 +602,19 @@
         <v>-0.0241746909044859</v>
       </c>
       <c r="F5" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.3725490196078431</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.1568627450980392</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.2941176470588235</v>
-      </c>
       <c r="J5" t="n">
-        <v>0.2156862745098039</v>
+        <v>0.07843137254901961</v>
       </c>
     </row>
     <row r="6">
@@ -634,19 +634,19 @@
         <v>0.01412817859983771</v>
       </c>
       <c r="F6" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.3529411764705883</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.5294117647058824</v>
-      </c>
       <c r="H6" t="n">
-        <v>0.2549019607843137</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6862745098039216</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2156862745098039</v>
       </c>
     </row>
     <row r="7">
@@ -669,16 +669,16 @@
         <v>0.2307692307692308</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07692307692307693</v>
+        <v>-0.01923076923076923</v>
       </c>
       <c r="I7" t="n">
         <v>0.4615384615384616</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0576923076923077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,19 +698,19 @@
         <v>0.007641408304855844</v>
       </c>
       <c r="F8" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.1481481481481481</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.4074074074074074</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.1851851851851852</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.5185185185185185</v>
-      </c>
       <c r="J8" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.01851851851851852</v>
       </c>
     </row>
     <row r="9">
@@ -730,19 +730,19 @@
         <v>0.004411376004938281</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3137254901960784</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="I9" t="n">
         <v>0.5686274509803921</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.1568627450980392</v>
       </c>
     </row>
     <row r="10">
@@ -762,19 +762,19 @@
         <v>-0.003894544011057117</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4074074074074074</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.2407407407407407</v>
       </c>
     </row>
     <row r="11">
@@ -794,19 +794,19 @@
         <v>0.008708613529076826</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1568627450980392</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1764705882352941</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1568627450980392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -826,19 +826,19 @@
         <v>-0.004871452530895494</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2075471698113208</v>
+        <v>0.3018867924528302</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4339622641509434</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2452830188679245</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6226415094339622</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2830188679245283</v>
+        <v>0.1320754716981132</v>
       </c>
     </row>
     <row r="13">
@@ -858,19 +858,19 @@
         <v>0.02659671429050976</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3725490196078431</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2745098039215687</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1568627450980392</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07843137254901961</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="14">
@@ -890,16 +890,16 @@
         <v>0.06415001473568205</v>
       </c>
       <c r="F14" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="G14" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="H14" t="n">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="J14" t="n">
         <v>0.2</v>
@@ -922,19 +922,19 @@
         <v>0.009481988727208634</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3269230769230769</v>
+        <v>0.25</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2115384615384615</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1730769230769231</v>
       </c>
     </row>
     <row r="16">
@@ -954,19 +954,19 @@
         <v>-0.003336003607564459</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4528301886792453</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3396226415094339</v>
+        <v>0.2641509433962264</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2830188679245283</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4339622641509434</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="J16" t="n">
-        <v>0.169811320754717</v>
+        <v>0.05660377358490566</v>
       </c>
     </row>
     <row r="17">
@@ -986,19 +986,19 @@
         <v>0.01555325318747985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.196078431372549</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3725490196078431</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6078431372549019</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="18">
@@ -1018,19 +1018,19 @@
         <v>-0.001886494286436624</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.3269230769230769</v>
       </c>
       <c r="H18" t="n">
-        <v>0.25</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5769230769230769</v>
+        <v>0.5</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="19">
@@ -1053,16 +1053,16 @@
         <v>0.4313725490196079</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5490196078431373</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4901960784313725</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2156862745098039</v>
+        <v>-0.05882352941176471</v>
       </c>
     </row>
     <row r="20">
@@ -1082,19 +1082,19 @@
         <v>0.01077745485116681</v>
       </c>
       <c r="F20" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="G20" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="H20" t="n">
-        <v>0.34</v>
+        <v>0.12</v>
       </c>
       <c r="I20" t="n">
         <v>0.76</v>
       </c>
       <c r="J20" t="n">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="21">
@@ -1114,19 +1114,19 @@
         <v>-8.364072948176173e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="H21" t="n">
-        <v>0.28</v>
+        <v>0.06</v>
       </c>
       <c r="I21" t="n">
-        <v>0.72</v>
+        <v>0.52</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
